--- a/General_Results_and_Plotting/AMF_Heatmap_Data_Mid_Updated620.xlsx
+++ b/General_Results_and_Plotting/AMF_Heatmap_Data_Mid_Updated620.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\FBA Paper Revisions\Figure Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BD4CF4-0ED9-4CF8-9B16-A3DCD076D07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0C80C6-AACD-4D3E-A7BE-CC63F3BAA9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="-2610" windowWidth="38640" windowHeight="21120" xr2:uid="{0519B96D-D429-4F6B-B478-3661B4AEAFA8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{0519B96D-D429-4F6B-B478-3661B4AEAFA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3DE3C8-00CC-407A-8FF8-2807DB9C95C3}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A25" sqref="A16:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,39 +490,40 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>90</v>
       </c>
-      <c r="B3" s="1">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
         <v>11</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>11</v>
       </c>
       <c r="M3" s="1"/>
@@ -540,34 +541,34 @@
       <c r="A4">
         <v>80</v>
       </c>
-      <c r="B4" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
         <v>25</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>25</v>
       </c>
       <c r="M4" s="1"/>
@@ -585,34 +586,34 @@
       <c r="A5">
         <v>70</v>
       </c>
-      <c r="B5" s="1">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
         <v>41</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>43</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>43</v>
       </c>
       <c r="M5" s="1"/>
@@ -630,34 +631,34 @@
       <c r="A6">
         <v>60</v>
       </c>
-      <c r="B6" s="1">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1">
-        <v>23</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>43</v>
+      </c>
+      <c r="I6">
         <v>64</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>67</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>67</v>
       </c>
       <c r="M6" s="1"/>
@@ -675,34 +676,34 @@
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="1">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
         <v>48</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>72</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>97</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>100</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>100</v>
       </c>
       <c r="M7" s="1"/>
@@ -720,34 +721,34 @@
       <c r="A8">
         <v>40</v>
       </c>
-      <c r="B8" s="1">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="B8">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
         <v>54</v>
       </c>
-      <c r="G8" s="1">
-        <v>85</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
         <v>115</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>146</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>150</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>150</v>
       </c>
       <c r="M8" s="1"/>
@@ -765,34 +766,34 @@
       <c r="A9">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B9">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
         <v>64</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>105</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>146</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>187</v>
       </c>
-      <c r="I9" s="1">
-        <v>216</v>
-      </c>
-      <c r="J9" s="1">
-        <v>216</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="I9">
+        <v>216</v>
+      </c>
+      <c r="J9">
+        <v>216</v>
+      </c>
+      <c r="K9">
         <v>216</v>
       </c>
       <c r="M9" s="1"/>
@@ -810,34 +811,34 @@
       <c r="A10">
         <v>20</v>
       </c>
-      <c r="B10" s="1">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1">
-        <v>84</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
         <v>146</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>207</v>
       </c>
-      <c r="G10" s="1">
-        <v>216</v>
-      </c>
-      <c r="H10" s="1">
-        <v>216</v>
-      </c>
-      <c r="I10" s="1">
-        <v>216</v>
-      </c>
-      <c r="J10" s="1">
-        <v>216</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="G10">
+        <v>216</v>
+      </c>
+      <c r="H10">
+        <v>216</v>
+      </c>
+      <c r="I10">
+        <v>216</v>
+      </c>
+      <c r="J10">
+        <v>216</v>
+      </c>
+      <c r="K10">
         <v>216</v>
       </c>
       <c r="M10" s="1"/>
@@ -855,34 +856,34 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
         <v>146</v>
       </c>
-      <c r="D11" s="1">
-        <v>216</v>
-      </c>
-      <c r="E11" s="1">
-        <v>216</v>
-      </c>
-      <c r="F11" s="1">
-        <v>216</v>
-      </c>
-      <c r="G11" s="1">
-        <v>216</v>
-      </c>
-      <c r="H11" s="1">
-        <v>216</v>
-      </c>
-      <c r="I11" s="1">
-        <v>216</v>
-      </c>
-      <c r="J11" s="1">
-        <v>216</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="D11">
+        <v>216</v>
+      </c>
+      <c r="E11">
+        <v>216</v>
+      </c>
+      <c r="F11">
+        <v>216</v>
+      </c>
+      <c r="G11">
+        <v>216</v>
+      </c>
+      <c r="H11">
+        <v>216</v>
+      </c>
+      <c r="I11">
+        <v>216</v>
+      </c>
+      <c r="J11">
+        <v>216</v>
+      </c>
+      <c r="K11">
         <v>216</v>
       </c>
       <c r="M11" s="1"/>
@@ -897,112 +898,13 @@
       <c r="V11" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="14:23" x14ac:dyDescent="0.35">
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="14:23" x14ac:dyDescent="0.35">
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="14:23" x14ac:dyDescent="0.35">
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="14:23" x14ac:dyDescent="0.35">
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="14:23" x14ac:dyDescent="0.35">
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
